--- a/BOM/PAROL_BOM_9_11_2023.xlsx
+++ b/BOM/PAROL_BOM_9_11_2023.xlsx
@@ -473,35 +473,32 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -774,1184 +771,1168 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="30.63"/>
-    <col customWidth="1" min="5" max="5" width="32.75"/>
-    <col customWidth="1" min="6" max="6" width="11.38"/>
-    <col customWidth="1" min="7" max="7" width="50.0"/>
-    <col customWidth="1" min="8" max="8" width="10.63"/>
+    <col customWidth="1" min="5" max="5" width="15.13"/>
+    <col customWidth="1" min="6" max="6" width="26.13"/>
+    <col customWidth="1" min="7" max="7" width="29.13"/>
+    <col customWidth="1" min="8" max="8" width="26.5"/>
+    <col customWidth="1" min="9" max="9" width="40.13"/>
   </cols>
   <sheetData>
-    <row r="3">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5">
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
     <row r="6">
-      <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7">
-      <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="E8" s="3"/>
+      <c r="F8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="E9" s="3"/>
+      <c r="F9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8">
-      <c r="C8" s="3"/>
-      <c r="D8" s="5" t="s">
+      <c r="G9" s="1"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="E10" s="3"/>
+      <c r="F10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10">
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11">
-      <c r="C11" s="3"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12">
+      <c r="E12" s="1"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="E13" s="3"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12">
-      <c r="C12" s="3"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10" t="s">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14">
+      <c r="E14" s="3"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" s="3"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
+      <c r="J14" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" s="3"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="9">
+      <c r="H15" s="6">
         <v>20.0</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="I15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14">
-      <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16">
+      <c r="E16" s="3"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="9">
+      <c r="H16" s="6">
         <v>10.0</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="I16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15">
-      <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17">
+      <c r="E17" s="3"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="9">
+      <c r="H17" s="6">
         <v>50.0</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="I17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16">
-      <c r="C16" s="3"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18">
+      <c r="E18" s="3"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="9">
+      <c r="H18" s="6">
         <v>30.0</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="I18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17">
-      <c r="C17" s="3"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19">
+      <c r="E19" s="3"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="9">
+      <c r="H19" s="6">
         <v>10.0</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="I19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18">
-      <c r="C18" s="3"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20">
+      <c r="E20" s="3"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="9">
+      <c r="H20" s="6">
         <v>10.0</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="I20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19">
-      <c r="C19" s="3"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21">
+      <c r="E21" s="3"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="9">
+      <c r="H21" s="6">
         <v>10.0</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="I21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20">
-      <c r="C20" s="3"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22">
+      <c r="E22" s="3"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="9">
+      <c r="H22" s="6">
         <v>10.0</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="I22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21">
-      <c r="C21" s="3"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23">
+      <c r="E23" s="3"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="9">
+      <c r="H23" s="6">
         <v>10.0</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="I23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22">
-      <c r="C22" s="3"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24">
+      <c r="E24" s="3"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="9">
+      <c r="H24" s="6">
         <v>30.0</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="I24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23">
-      <c r="C23" s="3"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25">
+      <c r="E25" s="3"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="9">
+      <c r="H25" s="6">
         <v>10.0</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="I25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24">
-      <c r="C24" s="3"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26">
+      <c r="E26" s="3"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="9">
+      <c r="H26" s="6">
         <v>30.0</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="I26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25">
-      <c r="C25" s="3"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27">
+      <c r="E27" s="3"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="9">
+      <c r="H27" s="6">
         <v>10.0</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="I27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26">
-      <c r="C26" s="3"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9" t="s">
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28">
+      <c r="E28" s="3"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="9">
+      <c r="H28" s="6">
         <v>10.0</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="I28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27">
-      <c r="C27" s="3"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29">
+      <c r="E29" s="3"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="9">
+      <c r="H29" s="6">
         <v>2.0</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="I29" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28">
-      <c r="C28" s="3"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13" t="s">
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30">
+      <c r="E30" s="3"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29">
-      <c r="C29" s="3"/>
-      <c r="D29" s="10" t="s">
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31">
+      <c r="E31" s="3"/>
+      <c r="F31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="G31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="H31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="I31" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="C30" s="3"/>
-      <c r="D30" s="9" t="s">
+      <c r="J31" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" s="3"/>
+      <c r="F32" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="G32" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="9">
+      <c r="H32" s="6">
         <v>2.0</v>
       </c>
-      <c r="G30" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="C31" s="3"/>
-      <c r="D31" s="9" t="s">
+      <c r="I32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" s="3"/>
+      <c r="F33" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="G33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" s="3"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="16" t="s">
+      <c r="H33" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" s="3"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-    </row>
-    <row r="33">
-      <c r="C33" s="3"/>
-      <c r="D33" s="10" t="s">
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35">
+      <c r="E35" s="3"/>
+      <c r="F35" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="G35" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="H35" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="I35" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" s="3"/>
-      <c r="D34" s="9" t="s">
+      <c r="J35" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" s="3"/>
+      <c r="F36" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="G36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" s="3"/>
-      <c r="D35" s="9" t="s">
+      <c r="H36" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" s="3"/>
+      <c r="F37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="G37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="9">
+      <c r="H37" s="6">
         <v>3.0</v>
       </c>
-      <c r="G35" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="C36" s="3"/>
-      <c r="D36" s="9" t="s">
+      <c r="I37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" s="3"/>
+      <c r="F38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="G38" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F36" s="9">
+      <c r="H38" s="6">
         <v>2.0</v>
       </c>
-      <c r="G36" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="C37" s="3"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="18" t="s">
+      <c r="I38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" s="3"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-    </row>
-    <row r="38">
-      <c r="C38" s="3"/>
-      <c r="D38" s="10" t="s">
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+    </row>
+    <row r="40">
+      <c r="E40" s="3"/>
+      <c r="F40" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="G40" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="H40" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="I40" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="C39" s="3"/>
-      <c r="D39" s="9" t="s">
+      <c r="J40" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" s="3"/>
+      <c r="F41" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="G41" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G39" s="9" t="s">
+      <c r="H41" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I41" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H39" s="9"/>
-    </row>
-    <row r="40">
-      <c r="C40" s="3"/>
-      <c r="D40" s="9" t="s">
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42">
+      <c r="E42" s="3"/>
+      <c r="F42" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="G42" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G40" s="9" t="s">
+      <c r="H42" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I42" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H40" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="C41" s="3"/>
-      <c r="D41" s="9" t="s">
+      <c r="J42" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" s="3"/>
+      <c r="F43" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="G43" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F41" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G41" s="19" t="s">
+      <c r="H43" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I43" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H41" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="C42" s="3"/>
-      <c r="D42" s="9" t="s">
+      <c r="J43" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" s="3"/>
+      <c r="F44" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="G44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G42" s="9" t="s">
+      <c r="H44" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H42" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="C43" s="3"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="21" t="s">
+      <c r="J44" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" s="3"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-    </row>
-    <row r="44">
-      <c r="C44" s="3"/>
-      <c r="D44" s="10" t="s">
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+    </row>
+    <row r="46">
+      <c r="E46" s="3"/>
+      <c r="F46" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="G46" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="H46" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="I46" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="C45" s="3"/>
-      <c r="D45" s="9" t="s">
+      <c r="J46" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" s="3"/>
+      <c r="F47" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="G47" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F45" s="9">
+      <c r="H47" s="6">
         <v>2.0</v>
       </c>
-      <c r="G45" s="9"/>
-      <c r="H45" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="C46" s="3"/>
-      <c r="D46" s="9" t="s">
+      <c r="I47" s="6"/>
+      <c r="J47" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" s="3"/>
+      <c r="F48" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="G48" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F46" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G46" s="9"/>
-      <c r="H46" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="C47" s="3"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="23" t="s">
+      <c r="H48" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I48" s="6"/>
+      <c r="J48" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" s="3"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-    </row>
-    <row r="48">
-      <c r="C48" s="3"/>
-      <c r="D48" s="10" t="s">
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50">
+      <c r="E50" s="3"/>
+      <c r="F50" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="G50" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="H50" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="I50" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H48" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="C49" s="1"/>
-      <c r="D49" s="19" t="s">
+      <c r="J50" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" s="1"/>
+      <c r="F51" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="G51" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F49" s="9">
+      <c r="H51" s="6">
         <v>3.0</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="I51" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H49" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="C50" s="3"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="25" t="s">
+      <c r="J51" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" s="3"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-    </row>
-    <row r="51">
-      <c r="C51" s="3"/>
-      <c r="D51" s="10" t="s">
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+    </row>
+    <row r="53">
+      <c r="E53" s="3"/>
+      <c r="F53" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="G53" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="H53" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="I53" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H51" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="C52" s="3"/>
-      <c r="D52" s="9" t="s">
+      <c r="J53" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" s="3"/>
+      <c r="F54" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="G54" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F52" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G52" s="9" t="s">
+      <c r="H54" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I54" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H52" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="C53" s="3"/>
-      <c r="D53" s="9" t="s">
+      <c r="J54" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" s="3"/>
+      <c r="F55" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="G55" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F53" s="9">
+      <c r="H55" s="6">
         <v>5.0</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="I55" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H53" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="C54" s="3"/>
-      <c r="D54" s="9" t="s">
+      <c r="J55" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" s="3"/>
+      <c r="F56" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="G56" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F54" s="9">
+      <c r="H56" s="6">
         <v>4.0</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="I56" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H54" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="C55" s="3"/>
-      <c r="D55" s="9" t="s">
+      <c r="J56" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" s="3"/>
+      <c r="F57" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="G57" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F55" s="9">
+      <c r="H57" s="6">
         <v>20.0</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="I57" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H55" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="C56" s="3"/>
-      <c r="D56" s="9" t="s">
+      <c r="J57" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" s="3"/>
+      <c r="F58" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="G58" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F56" s="9">
+      <c r="H58" s="6">
         <v>20.0</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="I58" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H56" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="C57" s="3"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="27" t="s">
+      <c r="J58" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" s="3"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-    </row>
-    <row r="58">
-      <c r="C58" s="3"/>
-      <c r="D58" s="11" t="s">
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+    </row>
+    <row r="60">
+      <c r="E60" s="3"/>
+      <c r="F60" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="G60" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="H60" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="I60" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H58" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="C59" s="3"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9" t="s">
+      <c r="J60" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" s="3"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F59" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G59" s="14" t="s">
+      <c r="H61" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I61" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H59" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="C60" s="3"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9" t="s">
+      <c r="J61" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62" s="3"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F60" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G60" s="9" t="s">
+      <c r="H62" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I62" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H60" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="C61" s="3"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
+      <c r="J62" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" s="3"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F61" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G61" s="9" t="s">
+      <c r="H63" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I63" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H61" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="C62" s="3"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9" t="s">
+      <c r="J63" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" s="3"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F62" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-    </row>
-    <row r="63">
-      <c r="C63" s="3"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9" t="s">
+      <c r="H64" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65">
+      <c r="E65" s="3"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F63" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G63" s="9" t="s">
+      <c r="H65" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I65" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H63" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="C64" s="3"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9" t="s">
+      <c r="J65" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" s="3"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F64" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G64" s="9" t="s">
+      <c r="H66" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I66" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H64" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="C65" s="3"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9" t="s">
+      <c r="J66" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67" s="3"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F65" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G65" s="9" t="s">
+      <c r="H67" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I67" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H65" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="C66" s="3"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
+      <c r="J67" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" s="3"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F66" s="9">
+      <c r="H68" s="6">
         <v>3.0</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="I68" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H66" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="C67" s="3"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9" t="s">
+      <c r="J68" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="E69" s="3"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F67" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G67" s="9" t="s">
+      <c r="H69" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I69" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H67" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="C68" s="3"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="19" t="s">
+      <c r="J69" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" s="3"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F68" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G68" s="9" t="s">
+      <c r="H70" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I70" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H68" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="C69" s="3"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="19" t="s">
+      <c r="J70" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71" s="3"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F69" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G69" s="9" t="s">
+      <c r="H71" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I71" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H69" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="C70" s="3"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9" t="s">
+      <c r="J71" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="E72" s="3"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F70" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G70" s="9" t="s">
+      <c r="H72" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I72" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H70" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="C71" s="3"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
+      <c r="J72" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="E73" s="3"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F71" s="9">
+      <c r="H73" s="6">
         <v>4.0</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="I73" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H71" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="C72" s="3"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9" t="s">
+      <c r="J73" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="E74" s="3"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F72" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G72" s="9" t="s">
+      <c r="H74" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I74" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="H72" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="C73" s="3"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9" t="s">
+      <c r="J74" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="E75" s="3"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="9">
+      <c r="H75" s="6">
         <v>2.0</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="I75" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H73" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="C74" s="3"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9" t="s">
+      <c r="J75" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="E76" s="3"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="H76" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G74" s="9" t="s">
+      <c r="I76" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H74" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="C75" s="3"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9" t="s">
+      <c r="J76" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="E77" s="3"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F75" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G75" s="9" t="s">
+      <c r="H77" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I77" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H75" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="C76" s="3"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9" t="s">
+      <c r="J77" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="E78" s="3"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F76" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G76" s="9" t="s">
+      <c r="H78" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I78" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H76" s="9"/>
-    </row>
-    <row r="77">
-      <c r="C77" s="3"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9" t="s">
+      <c r="J78" s="6"/>
+    </row>
+    <row r="79">
+      <c r="E79" s="3"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F77" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G77" s="9" t="s">
+      <c r="H79" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I79" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H77" s="9"/>
-    </row>
-    <row r="78">
-      <c r="C78" s="3"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9" t="s">
+      <c r="J79" s="6"/>
+    </row>
+    <row r="80">
+      <c r="E80" s="3"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F78" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G78" s="9" t="s">
+      <c r="H80" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I80" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H78" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-    </row>
-    <row r="80">
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
+      <c r="J80" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G30"/>
-    <hyperlink r:id="rId2" ref="H30"/>
-    <hyperlink r:id="rId3" ref="G31"/>
-    <hyperlink r:id="rId4" ref="H31"/>
-    <hyperlink r:id="rId5" ref="G34"/>
-    <hyperlink r:id="rId6" ref="H34"/>
-    <hyperlink r:id="rId7" ref="G35"/>
-    <hyperlink r:id="rId8" ref="H35"/>
-    <hyperlink r:id="rId9" ref="G36"/>
-    <hyperlink r:id="rId10" ref="H36"/>
-    <hyperlink r:id="rId11" ref="H40"/>
-    <hyperlink r:id="rId12" ref="H41"/>
-    <hyperlink r:id="rId13" ref="H42"/>
-    <hyperlink r:id="rId14" ref="H45"/>
-    <hyperlink r:id="rId15" ref="H46"/>
-    <hyperlink r:id="rId16" ref="H49"/>
-    <hyperlink r:id="rId17" ref="H52"/>
-    <hyperlink r:id="rId18" ref="H53"/>
-    <hyperlink r:id="rId19" ref="H54"/>
-    <hyperlink r:id="rId20" ref="H55"/>
-    <hyperlink r:id="rId21" ref="H56"/>
-    <hyperlink r:id="rId22" ref="G59"/>
-    <hyperlink r:id="rId23" ref="H59"/>
-    <hyperlink r:id="rId24" ref="H60"/>
-    <hyperlink r:id="rId25" ref="H61"/>
-    <hyperlink r:id="rId26" ref="H63"/>
-    <hyperlink r:id="rId27" ref="H64"/>
-    <hyperlink r:id="rId28" ref="H65"/>
-    <hyperlink r:id="rId29" ref="H66"/>
-    <hyperlink r:id="rId30" ref="H67"/>
-    <hyperlink r:id="rId31" ref="H68"/>
-    <hyperlink r:id="rId32" ref="H69"/>
-    <hyperlink r:id="rId33" ref="H70"/>
-    <hyperlink r:id="rId34" ref="H71"/>
-    <hyperlink r:id="rId35" ref="H72"/>
-    <hyperlink r:id="rId36" ref="H73"/>
-    <hyperlink r:id="rId37" ref="H74"/>
-    <hyperlink r:id="rId38" ref="H75"/>
-    <hyperlink r:id="rId39" ref="H78"/>
+    <hyperlink r:id="rId1" ref="I32"/>
+    <hyperlink r:id="rId2" ref="J32"/>
+    <hyperlink r:id="rId3" ref="I33"/>
+    <hyperlink r:id="rId4" ref="J33"/>
+    <hyperlink r:id="rId5" ref="I36"/>
+    <hyperlink r:id="rId6" ref="J36"/>
+    <hyperlink r:id="rId7" ref="I37"/>
+    <hyperlink r:id="rId8" ref="J37"/>
+    <hyperlink r:id="rId9" ref="I38"/>
+    <hyperlink r:id="rId10" ref="J38"/>
+    <hyperlink r:id="rId11" ref="J42"/>
+    <hyperlink r:id="rId12" ref="J43"/>
+    <hyperlink r:id="rId13" ref="J44"/>
+    <hyperlink r:id="rId14" ref="J47"/>
+    <hyperlink r:id="rId15" ref="J48"/>
+    <hyperlink r:id="rId16" ref="J51"/>
+    <hyperlink r:id="rId17" ref="J54"/>
+    <hyperlink r:id="rId18" ref="J55"/>
+    <hyperlink r:id="rId19" ref="J56"/>
+    <hyperlink r:id="rId20" ref="J57"/>
+    <hyperlink r:id="rId21" ref="J58"/>
+    <hyperlink r:id="rId22" ref="I61"/>
+    <hyperlink r:id="rId23" ref="J61"/>
+    <hyperlink r:id="rId24" ref="J62"/>
+    <hyperlink r:id="rId25" ref="J63"/>
+    <hyperlink r:id="rId26" ref="J65"/>
+    <hyperlink r:id="rId27" ref="J66"/>
+    <hyperlink r:id="rId28" ref="J67"/>
+    <hyperlink r:id="rId29" ref="J68"/>
+    <hyperlink r:id="rId30" ref="J69"/>
+    <hyperlink r:id="rId31" ref="J70"/>
+    <hyperlink r:id="rId32" ref="J71"/>
+    <hyperlink r:id="rId33" ref="J72"/>
+    <hyperlink r:id="rId34" ref="J73"/>
+    <hyperlink r:id="rId35" ref="J74"/>
+    <hyperlink r:id="rId36" ref="J75"/>
+    <hyperlink r:id="rId37" ref="J76"/>
+    <hyperlink r:id="rId38" ref="J77"/>
+    <hyperlink r:id="rId39" ref="J80"/>
   </hyperlinks>
   <drawing r:id="rId40"/>
 </worksheet>
